--- a/shared/ojb-resources-common/src/main/resources/ssp/Vehicle_Crash_Query_Results/artifacts/service_model/information_model/IEPD/documentation/VehicleCrashQueryResults.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Vehicle_Crash_Query_Results/artifacts/service_model/information_model/IEPD/documentation/VehicleCrashQueryResults.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="2180" windowWidth="28280" windowHeight="16440"/>
+    <workbookView xWindow="3240" yWindow="280" windowWidth="28280" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Vehisle Crash" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="222">
   <si>
     <t>Description</t>
   </si>
@@ -682,6 +682,9 @@
   </si>
   <si>
     <t>Occupant</t>
+  </si>
+  <si>
+    <t>Vehicle model</t>
   </si>
 </sst>
 </file>
@@ -1123,12 +1126,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1145,6 +1142,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1633,18 +1636,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="2"/>
     <col min="2" max="2" width="40.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.83203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="51" style="2" customWidth="1"/>
     <col min="6" max="6" width="157" style="2" bestFit="1" customWidth="1"/>
@@ -1685,7 +1688,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>150</v>
       </c>
       <c r="E3" s="5"/>
@@ -1696,7 +1699,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>42027</v>
       </c>
       <c r="E4" s="5"/>
@@ -1707,7 +1710,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>151</v>
       </c>
       <c r="E5" s="5"/>
@@ -1721,7 +1724,7 @@
         <v>67</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>42027</v>
       </c>
       <c r="E6" s="5"/>
@@ -1743,7 +1746,7 @@
       <c r="C8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1761,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>153</v>
       </c>
       <c r="E10" s="5"/>
@@ -1772,7 +1775,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>154</v>
       </c>
       <c r="E11" s="5"/>
@@ -1791,7 +1794,7 @@
       <c r="B13" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1802,7 +1805,7 @@
       <c r="B14" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1811,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>155</v>
       </c>
       <c r="E15" s="5"/>
@@ -1822,7 +1825,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>156</v>
       </c>
       <c r="E16" s="5"/>
@@ -1836,7 +1839,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>157</v>
       </c>
       <c r="E17" s="5"/>
@@ -1850,7 +1853,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="23" t="b">
+      <c r="D18" s="21" t="b">
         <v>0</v>
       </c>
       <c r="E18" s="5"/>
@@ -1864,7 +1867,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>158</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -1880,7 +1883,7 @@
         <v>203</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="23">
+      <c r="D20" s="21">
         <v>5</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1896,7 +1899,7 @@
         <v>205</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>215</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -1909,7 +1912,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>159</v>
       </c>
       <c r="E22" s="5"/>
@@ -1920,7 +1923,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>160</v>
       </c>
       <c r="E23" s="5"/>
@@ -1967,7 +1970,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="19">
+      <c r="D28" s="17">
         <v>55</v>
       </c>
       <c r="E28" s="5"/>
@@ -1981,7 +1984,7 @@
         <v>30</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>216</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -2060,7 +2063,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="19" t="b">
+      <c r="D37" s="17" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="5"/>
@@ -2083,7 +2086,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="23" t="b">
+      <c r="D39" s="21" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="5"/>
@@ -2142,7 +2145,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="23" t="b">
+      <c r="D44" s="21" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="5"/>
@@ -2153,7 +2156,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="23" t="b">
+      <c r="D45" s="21" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="5"/>
@@ -2179,7 +2182,7 @@
         <v>47</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="17" t="s">
         <v>209</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -2192,7 +2195,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>217</v>
       </c>
       <c r="E48" s="5" t="s">
@@ -2205,7 +2208,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="17" t="s">
         <v>191</v>
       </c>
       <c r="E49" s="5"/>
@@ -2221,7 +2224,7 @@
       <c r="C50" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="17" t="s">
         <v>193</v>
       </c>
       <c r="E50" s="5" t="s">
@@ -2255,7 +2258,7 @@
         <v>85</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="23" t="b">
+      <c r="D53" s="21" t="b">
         <v>1</v>
       </c>
       <c r="E53" s="5" t="s">
@@ -2378,7 +2381,7 @@
         <v>145</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="19">
+      <c r="D67" s="17">
         <v>1</v>
       </c>
       <c r="E67" s="5"/>
@@ -2392,7 +2395,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="19" t="b">
+      <c r="D68" s="17" t="b">
         <v>0</v>
       </c>
       <c r="E68" s="5"/>
@@ -2406,7 +2409,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="19" t="b">
+      <c r="D69" s="17" t="b">
         <v>0</v>
       </c>
       <c r="E69" s="5"/>
@@ -2417,7 +2420,7 @@
         <v>72</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="17" t="s">
         <v>165</v>
       </c>
       <c r="E70" s="5"/>
@@ -2428,7 +2431,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="17" t="s">
         <v>166</v>
       </c>
       <c r="E71" s="5"/>
@@ -2439,7 +2442,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="17" t="s">
         <v>167</v>
       </c>
       <c r="E72" s="5"/>
@@ -2473,7 +2476,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="17" t="s">
         <v>168</v>
       </c>
       <c r="E75" s="5"/>
@@ -2484,7 +2487,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="19">
+      <c r="D76" s="17">
         <v>457698098</v>
       </c>
       <c r="E76" s="5"/>
@@ -2495,7 +2498,7 @@
         <v>146</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="17" t="s">
         <v>208</v>
       </c>
       <c r="E77" s="5"/>
@@ -2503,35 +2506,34 @@
     </row>
     <row r="78" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B78" s="5" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="19">
-        <v>2001</v>
+      <c r="D78" s="17">
+        <v>135</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
     <row r="79" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B79" s="5" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="19" t="s">
-        <v>192</v>
+      <c r="D79" s="17">
+        <v>2001</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
     <row r="80" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A80" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>77</v>
+      <c r="B80" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="D80" s="17" t="s">
+        <v>192</v>
+      </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
@@ -2539,15 +2541,12 @@
       <c r="A81" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>194</v>
-      </c>
+      <c r="B81" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
@@ -2555,14 +2554,13 @@
         <v>129</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="23" t="b">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F82" s="5"/>
     </row>
@@ -2571,76 +2569,80 @@
         <v>129</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A84" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="19" t="b">
+      <c r="C84" s="5"/>
+      <c r="D84" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1">
-      <c r="B84" s="15" t="s">
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1">
+      <c r="B85" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1">
-      <c r="B85" s="5" t="s">
+    <row r="86" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1">
+      <c r="B86" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="23" t="b">
+      <c r="D86" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28">
-      <c r="A86" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B86" s="12" t="s">
+    <row r="87" spans="1:6" ht="28">
+      <c r="A87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D87" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1">
-      <c r="B87" s="15" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1">
       <c r="B88" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="5" customFormat="1" ht="14" customHeight="1">
+      <c r="B89" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A89" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="5"/>
       <c r="D89" s="8"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
     </row>
     <row r="90" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="A90" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="8"/>
@@ -2652,7 +2654,7 @@
         <v>129</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="8"/>
@@ -2664,473 +2666,471 @@
         <v>129</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="8"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" ht="14" customHeight="1">
-      <c r="B93" s="4" t="s">
+    <row r="93" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A93" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6" ht="14" customHeight="1">
+      <c r="B94" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A94" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94" s="5" t="s">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A95" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="19" t="s">
+      <c r="C95" s="5"/>
+      <c r="D95" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="B95" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B96" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>170</v>
+        <v>55</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B97" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>171</v>
+        <v>1</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B98" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D98" s="19" t="s">
-        <v>172</v>
+        <v>2</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B99" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>155</v>
+        <v>56</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B100" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D100" s="19" t="s">
-        <v>167</v>
+        <v>4</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B101" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D101" s="19">
-        <v>12190</v>
+        <v>57</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="2:6" s="6" customFormat="1">
+    <row r="102" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B102" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" s="17">
+        <v>12190</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="2:6" s="6" customFormat="1">
+      <c r="B103" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="19" t="s">
+      <c r="C103" s="5"/>
+      <c r="D103" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F102" s="5"/>
-    </row>
-    <row r="103" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="B103" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B104" s="5" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="19">
-        <v>0.02</v>
+      <c r="D104" s="21" t="b">
+        <v>1</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="2:6" s="6" customFormat="1">
+    <row r="105" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B105" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="5"/>
-      <c r="D105" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="D105" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
     <row r="106" spans="2:6" s="6" customFormat="1">
       <c r="B106" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="2:6" s="6" customFormat="1">
+      <c r="B107" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="19" t="s">
+      <c r="C107" s="5"/>
+      <c r="D107" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E107" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="2:6" ht="14" customHeight="1">
-      <c r="B107" s="4" t="s">
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="2:6" ht="14" customHeight="1">
+      <c r="B108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="B108" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B109" s="5" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" s="19" t="s">
-        <v>178</v>
+      <c r="D109" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
     <row r="110" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B110" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="19" t="s">
-        <v>179</v>
+      <c r="D110" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
     <row r="111" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B111" s="5" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C111" s="5"/>
-      <c r="D111" s="19" t="s">
-        <v>180</v>
+      <c r="D111" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
     <row r="112" spans="2:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B112" s="5" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C112" s="5"/>
-      <c r="D112" s="19" t="s">
-        <v>155</v>
+      <c r="D112" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
     <row r="113" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B113" s="5" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C113" s="5"/>
-      <c r="D113" s="19" t="s">
-        <v>167</v>
+      <c r="D113" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B114" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="19">
-        <v>12320</v>
+      <c r="D114" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" ht="14" customHeight="1">
-      <c r="B115" s="4" t="s">
+    <row r="115" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="B115" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="17">
+        <v>12320</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="1:6" ht="14" customHeight="1">
+      <c r="B116" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="B116" s="5" t="s">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="B117" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="19" t="s">
+      <c r="C117" s="5"/>
+      <c r="D117" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B117" s="5" t="s">
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A118" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="19" t="s">
+      <c r="C118" s="5"/>
+      <c r="D118" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F117" s="5"/>
-    </row>
-    <row r="118" spans="1:6" ht="14" customHeight="1">
-      <c r="B118" s="4" t="s">
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:6" ht="14" customHeight="1">
+      <c r="B119" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="B119" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
     </row>
     <row r="120" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B120" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="C120" s="5"/>
-      <c r="D120" s="19" t="s">
-        <v>163</v>
+      <c r="D120" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
     <row r="121" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B121" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="19" t="s">
-        <v>183</v>
+      <c r="D121" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
     <row r="122" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B122" s="5" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="19" t="s">
-        <v>155</v>
+      <c r="D122" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
     <row r="123" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B123" s="5" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="19" t="s">
-        <v>167</v>
+      <c r="D123" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
     <row r="124" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B124" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="19">
-        <v>12320</v>
+      <c r="D124" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="1:6" ht="14" customHeight="1">
-      <c r="B125" s="4" t="s">
+    <row r="125" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="B125" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="17">
+        <v>12320</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:6" ht="14" customHeight="1">
+      <c r="B126" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="B126" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F126" s="5"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B127" s="5" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C127" s="5"/>
-      <c r="D127" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E127" s="5"/>
+      <c r="D127" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="F127" s="5"/>
     </row>
     <row r="128" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B128" s="5" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="C128" s="5"/>
-      <c r="D128" s="19" t="s">
-        <v>167</v>
+      <c r="D128" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B129" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C129" s="5"/>
-      <c r="D129" s="23" t="s">
-        <v>101</v>
+      <c r="D129" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
     <row r="130" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B130" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C130" s="5"/>
-      <c r="D130" s="19" t="s">
-        <v>173</v>
+      <c r="D130" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
     <row r="131" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B131" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C131" s="5"/>
-      <c r="D131" s="19" t="s">
-        <v>103</v>
+      <c r="D131" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="1:6" ht="14" customHeight="1">
-      <c r="B132" s="4" t="s">
+    <row r="132" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="B132" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6" ht="14" customHeight="1">
+      <c r="B133" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="B133" s="5" t="s">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="B134" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="19" t="s">
+      <c r="C134" s="5"/>
+      <c r="D134" s="17" t="s">
         <v>162</v>
-      </c>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-    </row>
-    <row r="134" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="A134" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="19" t="b">
-        <v>0</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
@@ -3140,11 +3140,11 @@
         <v>129</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C135" s="5"/>
-      <c r="D135" s="23" t="s">
-        <v>218</v>
+      <c r="D135" s="17" t="b">
+        <v>0</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -3154,234 +3154,248 @@
         <v>129</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C136" s="5"/>
-      <c r="D136" s="23" t="s">
-        <v>219</v>
+      <c r="D136" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="1:6" ht="14" customHeight="1">
-      <c r="B137" s="4" t="s">
+    <row r="137" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="A137" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="1:6" ht="14" customHeight="1">
+      <c r="B138" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
-      <c r="B138" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B139" s="5" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C139" s="5"/>
-      <c r="D139" s="19" t="s">
-        <v>185</v>
+      <c r="D139" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
     <row r="140" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B140" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" s="5"/>
-      <c r="D140" s="19" t="s">
-        <v>186</v>
+      <c r="D140" s="17" t="s">
+        <v>185</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
     <row r="141" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B141" s="5" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="C141" s="5"/>
-      <c r="D141" s="19" t="s">
-        <v>187</v>
+      <c r="D141" s="17" t="s">
+        <v>186</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
     <row r="142" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B142" s="5" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C142" s="5"/>
-      <c r="D142" s="19" t="s">
-        <v>155</v>
+      <c r="D142" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
     <row r="143" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B143" s="5" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C143" s="5"/>
-      <c r="D143" s="19" t="s">
-        <v>167</v>
+      <c r="D143" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
     <row r="144" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
       <c r="B144" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C144" s="5"/>
-      <c r="D144" s="19">
-        <v>12320</v>
+      <c r="D144" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="1:6" ht="14" customHeight="1">
-      <c r="B145" s="4" t="s">
+    <row r="145" spans="1:6" s="6" customFormat="1" ht="14" customHeight="1">
+      <c r="B145" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="17">
+        <v>12320</v>
+      </c>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="1:6" ht="14" customHeight="1">
+      <c r="B146" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B146" s="2" t="s">
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D146" s="21">
+      <c r="D147" s="19">
         <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="B147" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D147" s="21" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="B148" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D148" s="21" t="s">
-        <v>189</v>
+        <v>55</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="B149" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>190</v>
+        <v>1</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="B150" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D150" s="21" t="s">
-        <v>186</v>
+        <v>2</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="B151" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="B152" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D151" s="22">
+      <c r="D152" s="20">
         <v>29273</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="B152" s="14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="B153" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="B154" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="B155" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="B156" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="B157" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="B158" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="B159" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="B160" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="B161" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="B162" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="B163" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="B164" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="36" customHeight="1">
-      <c r="A164" s="16" t="s">
+    <row r="165" spans="1:6" ht="36" customHeight="1">
+      <c r="A165" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
+      <c r="B165" s="23"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A164:F164"/>
+    <mergeCell ref="A165:F165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
